--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220521_110100.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220521_110100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -727,7 +727,7 @@
     <t>NEXTAR</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -827,9 +827,6 @@
   </si>
   <si>
     <t>WAKEONE</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1265,7 @@
         <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1320,7 +1317,7 @@
         <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1398,7 +1395,7 @@
         <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1450,7 +1447,7 @@
         <v>233</v>
       </c>
       <c r="H10" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1502,7 +1499,7 @@
         <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1528,7 +1525,7 @@
         <v>235</v>
       </c>
       <c r="H13" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1554,7 +1551,7 @@
         <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1580,7 +1577,7 @@
         <v>237</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1684,7 +1681,7 @@
         <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1710,7 +1707,7 @@
         <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1736,7 +1733,7 @@
         <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1762,7 +1759,7 @@
         <v>243</v>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1788,7 +1785,7 @@
         <v>229</v>
       </c>
       <c r="H23" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1814,7 +1811,7 @@
         <v>229</v>
       </c>
       <c r="H24" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1840,7 +1837,7 @@
         <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1866,7 +1863,7 @@
         <v>244</v>
       </c>
       <c r="H26" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1892,7 +1889,7 @@
         <v>242</v>
       </c>
       <c r="H27" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1944,7 +1941,7 @@
         <v>245</v>
       </c>
       <c r="H29" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1970,7 +1967,7 @@
         <v>231</v>
       </c>
       <c r="H30" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1996,7 +1993,7 @@
         <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2022,7 +2019,7 @@
         <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2048,7 +2045,7 @@
         <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2074,7 +2071,7 @@
         <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2100,7 +2097,7 @@
         <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2126,7 +2123,7 @@
         <v>229</v>
       </c>
       <c r="H36" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2178,7 +2175,7 @@
         <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2230,7 +2227,7 @@
         <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2256,7 +2253,7 @@
         <v>242</v>
       </c>
       <c r="H41" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2282,7 +2279,7 @@
         <v>251</v>
       </c>
       <c r="H42" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2308,7 +2305,7 @@
         <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2334,7 +2331,7 @@
         <v>252</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2360,7 +2357,7 @@
         <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2386,7 +2383,7 @@
         <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2412,7 +2409,7 @@
         <v>253</v>
       </c>
       <c r="H47" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2438,7 +2435,7 @@
         <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2464,7 +2461,7 @@
         <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2490,7 +2487,7 @@
         <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2516,7 +2513,7 @@
         <v>254</v>
       </c>
       <c r="H51" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2542,7 +2539,7 @@
         <v>232</v>
       </c>
       <c r="H52" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2568,7 +2565,7 @@
         <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2594,7 +2591,7 @@
         <v>255</v>
       </c>
       <c r="H54" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2620,7 +2617,7 @@
         <v>256</v>
       </c>
       <c r="H55" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2672,7 +2669,7 @@
         <v>241</v>
       </c>
       <c r="H57" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2698,7 +2695,7 @@
         <v>254</v>
       </c>
       <c r="H58" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2724,7 +2721,7 @@
         <v>245</v>
       </c>
       <c r="H59" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2750,7 +2747,7 @@
         <v>257</v>
       </c>
       <c r="H60" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2776,7 +2773,7 @@
         <v>254</v>
       </c>
       <c r="H61" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2802,7 +2799,7 @@
         <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2854,7 +2851,7 @@
         <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2880,7 +2877,7 @@
         <v>260</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2906,7 +2903,7 @@
         <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2932,7 +2929,7 @@
         <v>261</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3010,7 +3007,7 @@
         <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3036,7 +3033,7 @@
         <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3062,7 +3059,7 @@
         <v>262</v>
       </c>
       <c r="H72" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3088,7 +3085,7 @@
         <v>263</v>
       </c>
       <c r="H73" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3114,7 +3111,7 @@
         <v>243</v>
       </c>
       <c r="H74" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3166,7 +3163,7 @@
         <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3270,7 +3267,7 @@
         <v>241</v>
       </c>
       <c r="H80" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3296,7 +3293,7 @@
         <v>241</v>
       </c>
       <c r="H81" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3322,7 +3319,7 @@
         <v>266</v>
       </c>
       <c r="H82" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3374,7 +3371,7 @@
         <v>241</v>
       </c>
       <c r="H84" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3400,7 +3397,7 @@
         <v>254</v>
       </c>
       <c r="H85" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3426,7 +3423,7 @@
         <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3452,7 +3449,7 @@
         <v>267</v>
       </c>
       <c r="H87" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3478,7 +3475,7 @@
         <v>241</v>
       </c>
       <c r="H88" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3504,7 +3501,7 @@
         <v>245</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3530,7 +3527,7 @@
         <v>241</v>
       </c>
       <c r="H90" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3556,7 +3553,7 @@
         <v>241</v>
       </c>
       <c r="H91" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3582,7 +3579,7 @@
         <v>268</v>
       </c>
       <c r="H92" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3634,7 +3631,7 @@
         <v>245</v>
       </c>
       <c r="H94" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3660,7 +3657,7 @@
         <v>269</v>
       </c>
       <c r="H95" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3686,7 +3683,7 @@
         <v>254</v>
       </c>
       <c r="H96" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3712,7 +3709,7 @@
         <v>241</v>
       </c>
       <c r="H97" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3738,7 +3735,7 @@
         <v>237</v>
       </c>
       <c r="H98" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3764,7 +3761,7 @@
         <v>270</v>
       </c>
       <c r="H99" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3790,7 +3787,7 @@
         <v>266</v>
       </c>
       <c r="H100" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:8">
